--- a/central-tendency-nonprofit.xlsx
+++ b/central-tendency-nonprofit.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C74E21-A56F-478A-A701-726455D8E163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D343D8-8252-4109-BAC4-8453A978EF9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13986" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId3"/>
+    <sheet name="start" sheetId="6" r:id="rId1"/>
+    <sheet name="finish" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,15 +24,63 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>donation</t>
+  </si>
+  <si>
+    <t>Mean donation:</t>
+  </si>
+  <si>
+    <t>Median donation:</t>
+  </si>
+  <si>
+    <t>Mode donation:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,13 +110,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -194,21 +248,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
     <tableStyle name="Stringfest" pivot="0" count="3" xr9:uid="{80757AD5-BA57-4B3B-81C1-A3519B7631A7}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="Stringfest_Pivot" table="0" count="10" xr9:uid="{E4F46EAF-081F-4FE3-B38A-4D174B16E75D}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="7"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="6"/>
-      <tableStyleElement type="thirdSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="4"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="3"/>
-      <tableStyleElement type="thirdRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="9"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="8"/>
+      <tableStyleElement type="thirdSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="6"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="5"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="4"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
+      <tableStyleElement type="pageFieldValues" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -227,6 +281,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6295E5D-85A7-4FD9-B0D5-6DAD06FD0D6A}" name="donations" displayName="donations" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{D3F2D69D-8D9E-4B14-9D92-024E4243F979}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FD481EFE-D332-4FF9-9819-248C876B819F}" name="id"/>
+    <tableColumn id="2" xr3:uid="{B5037DEE-7F1E-4852-A11E-69505BC79DFB}" name="donation" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Stringfest" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18CE6247-B301-436D-9A16-0536F596CF66}" name="donations3" displayName="donations3" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{D3F2D69D-8D9E-4B14-9D92-024E4243F979}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{505D3F19-5BA9-4D15-8AB6-BE8F410628C2}" name="id"/>
+    <tableColumn id="2" xr3:uid="{35B504F2-B2DB-4E0C-A2E2-9C19101C4C6F}" name="donation" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Stringfest" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,36 +602,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <f>AVERAGE(donations[donation])</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MEDIAN(donations[donation])</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" cm="1">
+        <f t="array" ref="E4">_xlfn.MODE.MULT(donations[donation])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E434C7-3094-4F14-A308-A7F518F9B546}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946165F-5EF1-43BA-BB2E-8EDFD9DFB755}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <f>AVERAGE(donations[donation])</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MEDIAN(donations[donation])</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" cm="1">
+        <f t="array" ref="E4">_xlfn.MODE.MULT(donations[donation])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B116CE7A-A59D-45ED-8D2B-8BC95BB52201}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>